--- a/BalanceSheet/AVY_bal.xlsx
+++ b/BalanceSheet/AVY_bal.xlsx
@@ -3418,19 +3418,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1500000.0</v>
+        <v>-201000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-7800000.0</v>
+        <v>-80000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>700000.0</v>
+        <v>-203000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10000000.0</v>
+        <v>-211000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>6400000.0</v>
+        <v>-225000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>-225000000.0</v>
@@ -5357,7 +5357,7 @@
         <v>2048000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1796000000.0</v>
+        <v>1727600000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1259500000.0</v>
@@ -5484,7 +5484,7 @@
         <v>2820000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2080000000.0</v>
+        <v>1981300000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1483700000.0</v>
